--- a/config/xlsx/hurt.xlsx
+++ b/config/xlsx/hurt.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="11460"/>
+    <workbookView windowWidth="25460" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>id</t>
   </si>
@@ -63,40 +58,38 @@
     <t>selfneedstat</t>
   </si>
   <si>
+    <t>num</t>
+  </si>
+  <si>
     <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str_ls</t>
   </si>
   <si>
     <t>鹰击</t>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>num_ls</t>
   </si>
   <si>
     <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,29 +98,164 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,12 +264,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -151,22 +465,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -174,27 +730,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -452,24 +1052,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" activeCellId="1" sqref="H12 H7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,62 +1113,62 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:14">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -583,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -602,7 +1202,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/xlsx/hurt.xlsx
+++ b/config/xlsx/hurt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="11460"/>
+    <workbookView windowWidth="25460" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>id</t>
   </si>
@@ -58,12 +58,12 @@
     <t>selfneedstat</t>
   </si>
   <si>
+    <t>str</t>
+  </si>
+  <si>
     <t>num</t>
   </si>
   <si>
-    <t>str</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>测试</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
   </si>
 </sst>
 </file>
@@ -85,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -118,7 +115,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -126,14 +146,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -142,10 +154,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,9 +177,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,14 +216,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -188,16 +223,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,27 +237,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,22 +251,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,13 +267,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,157 +429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +471,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -498,57 +504,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,153 +532,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,7 +1052,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="2"/>
@@ -1118,16 +1109,16 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -1136,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:14">
@@ -1173,18 +1164,10 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="2">
         <v>1</v>
       </c>

--- a/config/xlsx/hurt.xlsx
+++ b/config/xlsx/hurt.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="12360"/>
+    <workbookView windowWidth="25460" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,15 +19,13 @@
     <author>Yang Liu</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -40,9 +33,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,80 +49,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hurtType</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>isAbs</t>
+  </si>
+  <si>
+    <t>absValue</t>
+  </si>
+  <si>
+    <t>isPericeShield</t>
+  </si>
+  <si>
+    <t>isDoubleShield</t>
+  </si>
+  <si>
+    <t>isResurgence</t>
+  </si>
+  <si>
+    <t>isRemoveFromGame</t>
+  </si>
+  <si>
+    <t>isRemoveFromGameWhenDie</t>
   </si>
   <si>
     <t>str</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hurtType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isAbs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>absValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDoubleShield</t>
-  </si>
-  <si>
-    <t>isResurgence</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRemoveFromGame</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRemoveFromGameWhenDie</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPericeShield</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,41 +115,161 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,7 +278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,12 +290,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -226,9 +504,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -252,17 +772,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -520,46 +1084,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="6" width="9.375" style="3"/>
-    <col min="7" max="7" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.875" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
@@ -574,39 +1138,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:10">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -614,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:10">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -635,8 +1199,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/hurt.xlsx
+++ b/config/xlsx/hurt.xlsx
@@ -132,15 +132,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -156,46 +164,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,22 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -239,9 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,23 +268,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,187 +296,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +521,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -543,21 +546,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,145 +595,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1090,13 +1078,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="6" width="9.375" style="3"/>
     <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
@@ -1198,6 +1186,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/config/xlsx/hurt.xlsx
+++ b/config/xlsx/hurt.xlsx
@@ -31,6 +31,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -39,6 +40,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -114,12 +116,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -127,16 +131,19 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -493,7 +500,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>

--- a/config/xlsx/hurt.xlsx
+++ b/config/xlsx/hurt.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2" t="b">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" s="2" t="b">
         <v>1</v>

--- a/config/xlsx/hurt.xlsx
+++ b/config/xlsx/hurt.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="12360"/>
+    <workbookView windowWidth="25460" windowHeight="9640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +19,13 @@
     <author>Yang Liu</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -40,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -56,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>id</t>
   </si>
@@ -103,8 +96,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,39 +115,161 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,7 +278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,12 +290,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -197,9 +504,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -223,17 +772,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -491,19 +1084,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="6" width="9.375" style="3"/>
     <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
@@ -513,7 +1106,7 @@
     <col min="11" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +1138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -577,7 +1170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:10">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -591,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:10">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -605,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -613,12 +1206,12 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/hurt.xlsx
+++ b/config/xlsx/hurt.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>id</t>
   </si>
@@ -81,6 +81,9 @@
     <t>isRemoveFromGameWhenDie</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>str</t>
   </si>
   <si>
@@ -91,6 +94,15 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>1倍物理伤害</t>
+  </si>
+  <si>
+    <t>1.5倍物理伤害 + 死亡排除</t>
+  </si>
+  <si>
+    <t>回复2倍hp</t>
   </si>
 </sst>
 </file>
@@ -98,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,23 +138,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,24 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,40 +244,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,50 +275,13 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,19 +314,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,61 +446,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,91 +476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,24 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -534,6 +516,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +568,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -607,85 +607,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,61 +694,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,10 +1090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="4"/>
@@ -1106,7 +1106,7 @@
     <col min="11" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,55 +1136,67 @@
       </c>
       <c r="J1" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:10">
-      <c r="A3" s="2">
+    <row r="3" s="2" customFormat="1" spans="1:12">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2" t="b">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:10">
+    <row r="4" s="2" customFormat="1" spans="1:12">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1192,21 +1204,27 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="J4" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/config/xlsx/hurt.xlsx
+++ b/config/xlsx/hurt.xlsx
@@ -110,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -138,75 +138,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,6 +174,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -230,7 +230,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,15 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,15 +261,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,175 +308,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,17 +505,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,45 +519,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +547,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -602,153 +587,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="4"/>
@@ -1137,7 +1137,6 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1182,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>

--- a/config/xlsx/hurt.xlsx
+++ b/config/xlsx/hurt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FCE477CA-775E-4AF1-A941-C2E36F156A91}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CD4FB18-04CA-4F2A-818F-6795395D260F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -608,7 +608,9 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">

--- a/config/xlsx/hurt.xlsx
+++ b/config/xlsx/hurt.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CD4FB18-04CA-4F2A-818F-6795395D260F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Yang Liu</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -41,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>id</t>
   </si>
@@ -116,8 +108,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,39 +127,168 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,7 +297,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,12 +309,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -210,9 +523,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -236,17 +791,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -504,19 +1103,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="6" width="9.375" style="3"/>
     <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
@@ -526,7 +1125,7 @@
     <col min="11" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +1160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -593,7 +1192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:12">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -608,16 +1207,14 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:12">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -634,7 +1231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -652,8 +1249,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/hurt.xlsx
+++ b/config/xlsx/hurt.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6B786B1E-9E40-4D32-9F9D-2316E3E674B4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B9A934-8AA7-4477-8635-FEE3FA8A34E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -231,28 +231,59 @@
     <t>bool</t>
   </si>
   <si>
+    <t>hurtType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1倍魔法伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>1倍物理伤害</t>
-  </si>
-  <si>
-    <t>1.5倍物理伤害 + 死亡排除</t>
-  </si>
-  <si>
-    <t>回复2倍hp</t>
-  </si>
-  <si>
-    <t>hurtType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1倍魔法伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1倍不可复活治疗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5倍魔法伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5倍物理伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5倍可复活治疗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3倍不可复活治疗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从游戏中排除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1倍可复活治疗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30点物理伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30点物理伤害 + 死亡移除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,13 +294,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -366,14 +390,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -660,20 +681,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="9.375" style="3"/>
-    <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.375" style="3"/>
+    <col min="1" max="6" width="9.375" style="2"/>
+    <col min="7" max="7" width="14.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -681,30 +702,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -721,100 +742,199 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>100001</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>100002</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>200001</v>
+      </c>
+      <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>200002</v>
+      </c>
+      <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="J4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>100001</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>18</v>
+      <c r="C6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>210001</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>210002</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>300001</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>300002</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>300003</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>300004</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>500001</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/config/xlsx/hurt.xlsx
+++ b/config/xlsx/hurt.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B9A934-8AA7-4477-8635-FEE3FA8A34E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Yang Liu</author>
+    <author>lyvoi</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -41,7 +35,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,15 +45,35 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{4B77C1DE-7758-4204-8957-A68A5997C079}">
+    <comment ref="C1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>lyvoi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+绝对值也要填倍率，写1，不然会变成0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -68,9 +81,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -78,15 +89,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5C45EB33-5DA7-47FE-99BA-B4A5711EEFB4}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -94,9 +103,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -104,15 +111,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{0BFC74B7-549D-4D27-9740-8F0C8434074C}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -120,9 +125,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -130,15 +133,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E79ADBB4-17CE-4324-8F04-3BFF8515A6DC}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -146,9 +147,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -156,15 +155,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{7EE38C0A-DE48-4008-873B-349D6663E513}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -172,9 +169,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -187,11 +182,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>hurtType</t>
+  </si>
+  <si>
     <t>rate</t>
   </si>
   <si>
@@ -231,59 +229,53 @@
     <t>bool</t>
   </si>
   <si>
-    <t>hurtType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1倍魔法伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5倍魔法伤害</t>
   </si>
   <si>
     <t>1倍物理伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5倍物理伤害</t>
+  </si>
+  <si>
+    <t>30点物理伤害</t>
+  </si>
+  <si>
+    <t>30点物理伤害 + 死亡移除</t>
   </si>
   <si>
     <t>1倍不可复活治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5倍魔法伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5倍物理伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0.5倍可复活治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0.3倍不可复活治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1倍可复活治疗</t>
+  </si>
+  <si>
+    <t>0.3倍护盾治疗</t>
   </si>
   <si>
     <t>从游戏中排除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1倍可复活治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30点物理伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30点物理伤害 + 死亡移除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -295,47 +287,162 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,7 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,12 +463,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -384,9 +677,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -407,17 +942,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -675,19 +1254,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="6" width="9.375" style="2"/>
     <col min="7" max="7" width="14.125" style="2" customWidth="1"/>
@@ -697,74 +1276,74 @@
     <col min="11" max="16384" width="9.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>100001</v>
       </c>
@@ -778,7 +1357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>100002</v>
       </c>
@@ -789,10 +1368,10 @@
         <v>0.5</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>200001</v>
       </c>
@@ -803,10 +1382,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>200002</v>
       </c>
@@ -817,16 +1396,19 @@
         <v>0.5</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>210001</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
       <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
@@ -834,16 +1416,19 @@
         <v>30</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>210002</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
       <c r="D8" s="2" t="b">
         <v>1</v>
       </c>
@@ -854,29 +1439,29 @@
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>300001</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>300002</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
         <v>0.5</v>
@@ -885,57 +1470,78 @@
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>300003</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
         <v>0.3</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" spans="1:12">
       <c r="A12" s="2">
         <v>300004</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
         <v>0.1</v>
       </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
+        <v>300005</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2">
         <v>500001</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="2" t="b">
+      <c r="I14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>22</v>
+      <c r="L14" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/hurt.xlsx
+++ b/config/xlsx/hurt.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3448BBF-0FC7-426A-B9B1-87F71E780A7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Yang Liu</author>
     <author>lyvoi</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +73,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{08E95B77-47C7-44D2-8DF8-1C8C1B020F15}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+注意，如果是手牌一定要是绝对值的，否则会报错，阻碍进程</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -182,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -268,14 +300,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,158 +317,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,7 +359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,198 +371,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -677,251 +399,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -942,61 +422,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1254,19 +690,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="6" width="9.375" style="2"/>
     <col min="7" max="7" width="14.125" style="2" customWidth="1"/>
@@ -1276,7 +712,7 @@
     <col min="11" max="16384" width="9.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1343,7 +779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>100001</v>
       </c>
@@ -1357,7 +793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>100002</v>
       </c>
@@ -1371,7 +807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>200001</v>
       </c>
@@ -1385,7 +821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>200002</v>
       </c>
@@ -1399,7 +835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>210001</v>
       </c>
@@ -1419,7 +855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>210002</v>
       </c>
@@ -1442,7 +878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>300001</v>
       </c>
@@ -1456,7 +892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>300002</v>
       </c>
@@ -1473,7 +909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>300003</v>
       </c>
@@ -1487,7 +923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>300004</v>
       </c>
@@ -1497,21 +933,14 @@
       <c r="C12" s="2">
         <v>0.1</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
       <c r="H12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>300005</v>
       </c>
@@ -1525,13 +954,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>500001</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
+      <c r="D14" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="I14" s="2" t="b">
         <v>1</v>
       </c>
@@ -1540,8 +972,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/xlsx/hurt.xlsx
+++ b/config/xlsx/hurt.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3448BBF-0FC7-426A-B9B1-87F71E780A7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25460" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Yang Liu</author>
     <author>lyvoi</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -73,15 +67,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{08E95B77-47C7-44D2-8DF8-1C8C1B020F15}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -89,9 +81,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -99,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>id</t>
   </si>
@@ -246,7 +236,7 @@
     <t>isRemoveFromGameWhenDie</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>~备注</t>
   </si>
   <si>
     <t>str</t>
@@ -273,35 +263,59 @@
     <t>0.5倍物理伤害</t>
   </si>
   <si>
+    <t>2倍物理伤害</t>
+  </si>
+  <si>
+    <t>1倍物理伤害，shield翻倍</t>
+  </si>
+  <si>
+    <t>2倍物理伤害，shield翻倍</t>
+  </si>
+  <si>
     <t>30点物理伤害</t>
   </si>
   <si>
     <t>30点物理伤害 + 死亡移除</t>
   </si>
   <si>
+    <t>1倍可复活治疗</t>
+  </si>
+  <si>
+    <t>0.5倍可复活治疗</t>
+  </si>
+  <si>
+    <t>0.3倍不可复活治疗</t>
+  </si>
+  <si>
+    <t>0.1倍可复活治疗</t>
+  </si>
+  <si>
+    <t>0.3倍护盾治疗</t>
+  </si>
+  <si>
     <t>1倍不可复活治疗</t>
   </si>
   <si>
-    <t>0.5倍可复活治疗</t>
-  </si>
-  <si>
-    <t>0.3倍不可复活治疗</t>
-  </si>
-  <si>
-    <t>0.1倍可复活治疗</t>
-  </si>
-  <si>
-    <t>0.3倍护盾治疗</t>
-  </si>
-  <si>
     <t>从游戏中排除</t>
+  </si>
+  <si>
+    <t>1倍伤害 + 死亡祛除</t>
+  </si>
+  <si>
+    <t>0.8倍不可复活治疗</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -317,40 +331,151 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,7 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,12 +496,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -399,9 +710,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -422,17 +975,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -690,19 +1287,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="6" width="9.375" style="2"/>
     <col min="7" max="7" width="14.125" style="2" customWidth="1"/>
@@ -712,7 +1309,7 @@
     <col min="11" max="16384" width="9.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,11 +1340,11 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -779,7 +1376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>100001</v>
       </c>
@@ -789,11 +1386,11 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>100002</v>
       </c>
@@ -801,179 +1398,297 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>100003</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.5</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
         <v>200001</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>200002</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
-        <v>210001</v>
+        <v>200002</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>30</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
-        <v>210002</v>
+        <v>200004</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
+        <v>200005</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>200006</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
+        <v>210001</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
         <v>30</v>
       </c>
-      <c r="J8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
+        <v>210002</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
         <v>300001</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
         <v>300002</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C14" s="2">
         <v>0.5</v>
       </c>
-      <c r="H10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="H14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
         <v>300003</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C15" s="2">
         <v>0.3</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="K15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
         <v>300004</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C16" s="2">
         <v>0.1</v>
       </c>
-      <c r="H12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="H16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
         <v>300005</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C17" s="2">
         <v>0.3</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="K17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2">
+        <v>300006</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2">
         <v>500001</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B19" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>26</v>
+      <c r="D19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>400003</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2">
+        <v>500002</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
+        <v>300008</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>